--- a/R Model Extras/R Code Diss/CD_Found/CD_Found_Combine.xlsx
+++ b/R Model Extras/R Code Diss/CD_Found/CD_Found_Combine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\EMAP\101 Dissertation\R Code Diss\CD_Found\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Drive\EMAP\101 Dissertation\Dissertation\R Model Extras\R Code Diss\CD_Found\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCDADA8-3395-43AA-B9D6-EF20370F9F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A651DF-81B9-42F4-8710-95105CB1CCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3B6D22E-3FFB-4F21-968D-28C607BA19D4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="51">
   <si>
     <t>Sector</t>
   </si>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DF0A5F-C7FB-49DA-A929-97FF04A2D2ED}">
-  <dimension ref="B2:W48"/>
+  <dimension ref="B2:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,7 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
@@ -628,7 +628,7 @@
       </c>
       <c r="W2" s="5"/>
     </row>
-    <row r="4" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -689,8 +689,23 @@
       <c r="W4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -721,7 +736,7 @@
         <v>3.3986637247951799</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ref="L5:N5" si="0">SUMIFS(E$5:E$48,$C$5:$C$48,$J5,$B$5:$B$48,$I5)</f>
+        <f t="shared" ref="L5:M5" si="0">SUMIFS(E$5:E$48,$C$5:$C$48,$J5,$B$5:$B$48,$I5)</f>
         <v>0.41417169903782802</v>
       </c>
       <c r="M5" s="2">
@@ -733,7 +748,7 @@
         <v>0.58482830096217198</v>
       </c>
       <c r="O5" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J5,$B$5:$B$48,$I5)</f>
+        <f t="shared" ref="O5:O26" si="1">SUMIFS(G$5:G$48,$C$5:$C$48,$J5,$B$5:$B$48,$I5)</f>
         <v>8.6296100210398893E-2</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -744,15 +759,15 @@
         <v>1.3637965309069799</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" ref="S5:U20" si="1">IFERROR(INDEX(L$5:L$26,MATCH($Q5,$I$5:$I$26,0)),INDEX(L$31:L$47,MATCH($Q5,$J$31:$J$47,0)))</f>
+        <f t="shared" ref="S5:U20" si="2">IFERROR(INDEX(L$5:L$26,MATCH($Q5,$I$5:$I$26,0)),INDEX(L$31:L$47,MATCH($Q5,$J$31:$J$47,0)))</f>
         <v>0.41360439414502298</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.111207217184912</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.47518838867006602</v>
       </c>
       <c r="V5" s="2" t="b">
@@ -763,13 +778,32 @@
         <f>EXP(R5)</f>
         <v>3.911013434830596</v>
       </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>ROUND(W5,2)</f>
+        <v>3.91</v>
+      </c>
+      <c r="AA5" s="2">
+        <f>ROUND(S5,2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="AB5" s="2">
+        <f t="shared" ref="AB5:AB43" si="3">ROUND(T5,2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" ref="AC5:AC43" si="4">ROUND(U5,2)</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C26" si="2">C5</f>
+        <f t="shared" ref="C6:C25" si="5">C5</f>
         <v>1</v>
       </c>
       <c r="D6" s="2">
@@ -788,63 +822,82 @@
         <v>6</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6:J26" si="3">IF(G6&gt;=G28,C6,C28)</f>
+        <f t="shared" ref="J6:J26" si="6">IF(G6&gt;=G28,C6,C28)</f>
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ref="K6:K26" si="4">SUMIFS(D$5:D$48,$C$5:$C$48,$J6,$B$5:$B$48,$I6)</f>
+        <f t="shared" ref="K6:K26" si="7">SUMIFS(D$5:D$48,$C$5:$C$48,$J6,$B$5:$B$48,$I6)</f>
         <v>1.97815396371539</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" ref="L6:L26" si="5">SUMIFS(E$5:E$48,$C$5:$C$48,$J6,$B$5:$B$48,$I6)</f>
+        <f t="shared" ref="L6:L26" si="8">SUMIFS(E$5:E$48,$C$5:$C$48,$J6,$B$5:$B$48,$I6)</f>
         <v>0.702712981542711</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M26" si="6">SUMIFS(F$5:F$48,$C$5:$C$48,$J6,$B$5:$B$48,$I6)</f>
+        <f t="shared" ref="M6:M26" si="9">SUMIFS(F$5:F$48,$C$5:$C$48,$J6,$B$5:$B$48,$I6)</f>
         <v>3.03391202578236E-2</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N6:N26" si="7">1-L6-M6</f>
+        <f t="shared" ref="N6:N26" si="10">1-L6-M6</f>
         <v>0.26694789819946541</v>
       </c>
       <c r="O6" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J6,$B$5:$B$48,$I6)</f>
+        <f t="shared" si="1"/>
         <v>1.6786810378830899E-3</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" ref="R6:R44" si="8">IFERROR(INDEX(K$5:K$26,MATCH($Q6,$I$5:$I$26,0)),INDEX(K$31:K$47,MATCH($Q6,$J$31:$J$47,0)))</f>
+        <f t="shared" ref="R6:R43" si="11">IFERROR(INDEX(K$5:K$26,MATCH($Q6,$I$5:$I$26,0)),INDEX(K$31:K$47,MATCH($Q6,$J$31:$J$47,0)))</f>
         <v>1.60237743207415</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18815710471813599</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.353350687569224</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45849220771263899</v>
       </c>
       <c r="V6" s="2" t="b">
-        <f t="shared" ref="V6:V43" si="9">ABS(1-(S6+T6+U6))&lt;=$V$2</f>
+        <f t="shared" ref="V6:V43" si="12">ABS(1-(S6+T6+U6))&lt;=$V$2</f>
         <v>1</v>
       </c>
       <c r="W6" s="2">
-        <f t="shared" ref="W6:W43" si="10">EXP(R6)</f>
+        <f t="shared" ref="W6:W43" si="13">EXP(R6)</f>
         <v>4.9648219313681468</v>
       </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" ref="Z6:Z43" si="14">ROUND(W6,2)</f>
+        <v>4.96</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" ref="AA6:AA43" si="15">ROUND(S6,2)</f>
+        <v>0.19</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D7" s="2">
@@ -863,63 +916,82 @@
         <v>7</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0870112222873201</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.75132254134909604</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.18492648179656199</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.3750976854341973E-2</v>
       </c>
       <c r="O7" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J7,$B$5:$B$48,$I7)</f>
+        <f t="shared" si="1"/>
         <v>3.2784229939243702E-2</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.3986637247951799</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41417169903782802</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58482830096217198</v>
       </c>
       <c r="V7" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>29.92408650397601</v>
       </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="14"/>
+        <v>29.92</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="15"/>
+        <v>0.41</v>
+      </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D8" s="2">
@@ -938,63 +1010,82 @@
         <v>8</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1926662910194901</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.88082621616187595</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.5382978927292695E-2</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.3790804910831352E-2</v>
       </c>
       <c r="O8" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J8,$B$5:$B$48,$I8)</f>
+        <f t="shared" si="1"/>
         <v>5.3594119151897199E-2</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1131907787195101</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66611600176177299</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.118468832411614</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21541516582661299</v>
       </c>
       <c r="V8" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.0440558235757602</v>
       </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="14"/>
+        <v>3.04</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="15"/>
+        <v>0.67</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D9" s="2">
@@ -1013,63 +1104,82 @@
         <v>9</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.9557123911996701</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.29435818113485201</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.57296210597517705</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.13267971288997094</v>
       </c>
       <c r="O9" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J9,$B$5:$B$48,$I9)</f>
+        <f t="shared" si="1"/>
         <v>2.85926129446185E-3</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.97815396371539</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.702712981542711</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.03391202578236E-2</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26694789819946541</v>
       </c>
       <c r="V9" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.2293849523104807</v>
       </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="14"/>
+        <v>7.23</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D10" s="2">
@@ -1088,63 +1198,82 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.57234502585725</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.81086095333677299</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.12910524574702301</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.0033800916204E-2</v>
       </c>
       <c r="O10" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J10,$B$5:$B$48,$I10)</f>
+        <f t="shared" si="1"/>
         <v>1.3445316577316501E-2</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.0870112222873201</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75132254134909604</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18492648179656199</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3750976854341973E-2</v>
       </c>
       <c r="V10" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.0607872245382115</v>
       </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="14"/>
+        <v>8.06</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="15"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D11" s="2">
@@ -1163,63 +1292,82 @@
         <v>11</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.4334720204150404</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.41108818396018398</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.49475030137661102</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.4161514663204993E-2</v>
       </c>
       <c r="O11" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J11,$B$5:$B$48,$I11)</f>
+        <f t="shared" si="1"/>
         <v>2.1243267417594101E-2</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1926662910194901</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88082621616187595</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5382978927292695E-2</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3790804910831352E-2</v>
       </c>
       <c r="V11" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.2958572169853606</v>
       </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="14"/>
+        <v>3.3</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="15"/>
+        <v>0.88</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D12" s="2">
@@ -1238,63 +1386,82 @@
         <v>12</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.09971467366565</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.87246467357625901</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.8783366814366795E-2</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.8751959609374196E-2</v>
       </c>
       <c r="O12" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J12,$B$5:$B$48,$I12)</f>
+        <f t="shared" si="1"/>
         <v>3.7729784751490601E-2</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.9557123911996701</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29435818113485201</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57296210597517705</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13267971288997094</v>
       </c>
       <c r="V12" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>141.98371830447368</v>
       </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="14"/>
+        <v>141.97999999999999</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="15"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D13" s="2">
@@ -1313,63 +1480,82 @@
         <v>13</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9107189587030899</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.61835949066124696</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.30574884260652202</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.5891666732231022E-2</v>
       </c>
       <c r="O13" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J13,$B$5:$B$48,$I13)</f>
+        <f t="shared" si="1"/>
         <v>6.3209958742455497E-2</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0582638133812099</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58683204248243104</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25932810891894797</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15383984859862099</v>
       </c>
       <c r="V13" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.8813640583205009</v>
       </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="14"/>
+        <v>2.88</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="15"/>
+        <v>0.59</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D14" s="2">
@@ -1388,63 +1574,82 @@
         <v>14</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.27371071435409</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.86850128193065002</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.5476167616387396E-2</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.6022550452962588E-2</v>
       </c>
       <c r="O14" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J14,$B$5:$B$48,$I14)</f>
+        <f t="shared" si="1"/>
         <v>4.8726416253337297E-2</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.28153941327944</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.69841433292414401</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2345549954229205E-2</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22924011712162701</v>
       </c>
       <c r="V14" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.6021807043581009</v>
       </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="14"/>
+        <v>3.6</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="15"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D15" s="2">
@@ -1463,63 +1668,82 @@
         <v>15</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0890761906804198</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.73399142206942203</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.20255026808452301</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.3458309846054967E-2</v>
       </c>
       <c r="O15" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J15,$B$5:$B$48,$I15)</f>
+        <f t="shared" si="1"/>
         <v>5.0043374804395302E-2</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.57234502585725</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81086095333677299</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12910524574702301</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0033800916204E-2</v>
       </c>
       <c r="V15" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.8179331346438907</v>
       </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="14"/>
+        <v>4.82</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="15"/>
+        <v>0.81</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D16" s="2">
@@ -1538,63 +1762,82 @@
         <v>16</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.33760466934964</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.57974988942148697</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.40054433465037997</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.9705775928133051E-2</v>
       </c>
       <c r="O16" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J16,$B$5:$B$48,$I16)</f>
+        <f t="shared" si="1"/>
         <v>3.8366040309637202E-2</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.4334720204150404</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41108818396018398</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49475030137661102</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4161514663204993E-2</v>
       </c>
       <c r="V16" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>84.223334982743964</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="14"/>
+        <v>84.22</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="15"/>
+        <v>0.41</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D17" s="2">
@@ -1613,63 +1856,82 @@
         <v>17</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.2067553508226796</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.40483382433717302</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.43197731499456399</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.16318886066826305</v>
       </c>
       <c r="O17" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J17,$B$5:$B$48,$I17)</f>
+        <f t="shared" si="1"/>
         <v>4.2210784511626701E-2</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.94132217108104999</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51241778231636004</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.444729572943249</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.28526447403915E-2</v>
       </c>
       <c r="V17" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.5633683903134092</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="14"/>
+        <v>2.56</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="15"/>
+        <v>0.51</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.44</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D18" s="2">
@@ -1688,63 +1950,82 @@
         <v>18</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.8690280739816401</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.79898807294152996</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.14217755077413899</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.8834376284331052E-2</v>
       </c>
       <c r="O18" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J18,$B$5:$B$48,$I18)</f>
+        <f t="shared" si="1"/>
         <v>2.7094029006002801E-2</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.26095734112882</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.395536465868423</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46957266033425499</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13489087379732201</v>
       </c>
       <c r="V18" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.5287981343953105</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="14"/>
+        <v>3.53</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D19" s="2">
@@ -1763,63 +2044,82 @@
         <v>19</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.6254481178160698</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.36661423549650002</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.63238576450349993</v>
       </c>
       <c r="O19" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J19,$B$5:$B$48,$I19)</f>
+        <f t="shared" si="1"/>
         <v>7.7243515210850197E-2</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.09971467366565</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87246467357625901</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8783366814366795E-2</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8751959609374196E-2</v>
       </c>
       <c r="V19" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.0033089785416678</v>
       </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="15"/>
+        <v>0.87</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D20" s="2">
@@ -1838,63 +2138,82 @@
         <v>20</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.75173896622252</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.81035355177627599</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.129078915539901</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.0567532683823005E-2</v>
       </c>
       <c r="O20" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J20,$B$5:$B$48,$I20)</f>
+        <f t="shared" si="1"/>
         <v>6.0221761385589899E-2</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6766512831276701</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10975588060227</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53759031032136595</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35265380907636501</v>
       </c>
       <c r="V20" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.3476182941753825</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="14"/>
+        <v>5.35</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="15"/>
+        <v>0.11</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D21" s="2">
@@ -1913,63 +2232,82 @@
         <v>21</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.80417951774302</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.65686903372030503</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.27932809313823698</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.3802873141457994E-2</v>
       </c>
       <c r="O21" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J21,$B$5:$B$48,$I21)</f>
+        <f t="shared" si="1"/>
         <v>9.6086476399506195E-4</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9107189587030899</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" ref="S21:S43" si="11">IFERROR(INDEX(L$5:L$26,MATCH($Q21,$I$5:$I$26,0)),INDEX(L$31:L$47,MATCH($Q21,$J$31:$J$47,0)))</f>
+        <f t="shared" ref="S21:S43" si="16">IFERROR(INDEX(L$5:L$26,MATCH($Q21,$I$5:$I$26,0)),INDEX(L$31:L$47,MATCH($Q21,$J$31:$J$47,0)))</f>
         <v>0.61835949066124696</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" ref="T21:T43" si="12">IFERROR(INDEX(M$5:M$26,MATCH($Q21,$I$5:$I$26,0)),INDEX(M$31:M$47,MATCH($Q21,$J$31:$J$47,0)))</f>
+        <f t="shared" ref="T21:T43" si="17">IFERROR(INDEX(M$5:M$26,MATCH($Q21,$I$5:$I$26,0)),INDEX(M$31:M$47,MATCH($Q21,$J$31:$J$47,0)))</f>
         <v>0.30574884260652202</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" ref="U21:U43" si="13">IFERROR(INDEX(N$5:N$26,MATCH($Q21,$I$5:$I$26,0)),INDEX(N$31:N$47,MATCH($Q21,$J$31:$J$47,0)))</f>
+        <f t="shared" ref="U21:U43" si="18">IFERROR(INDEX(N$5:N$26,MATCH($Q21,$I$5:$I$26,0)),INDEX(N$31:N$47,MATCH($Q21,$J$31:$J$47,0)))</f>
         <v>7.5891666732231022E-2</v>
       </c>
       <c r="V21" s="2" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>18.370001092575176</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="14"/>
+        <v>18.37</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="15"/>
+        <v>0.62</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D22" s="2">
@@ -1988,63 +2326,82 @@
         <v>22</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.0897540149007101</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.31622836091108802</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.61554813485083404</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.8223504238077881E-2</v>
       </c>
       <c r="O22" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J22,$B$5:$B$48,$I22)</f>
+        <f t="shared" si="1"/>
         <v>6.0767619992788601E-4</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.27371071435409</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.86850128193065002</v>
       </c>
       <c r="T22" s="2">
+        <f t="shared" si="17"/>
+        <v>7.5476167616387396E-2</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="18"/>
+        <v>5.6022550452962588E-2</v>
+      </c>
+      <c r="V22" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>7.5476167616387396E-2</v>
-      </c>
-      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
         <f t="shared" si="13"/>
-        <v>5.6022550452962588E-2</v>
-      </c>
-      <c r="V22" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W22" s="2">
-        <f t="shared" si="10"/>
         <v>3.5740904148262702</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="14"/>
+        <v>3.57</v>
+      </c>
+      <c r="AA22" s="2">
+        <f t="shared" si="15"/>
+        <v>0.87</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="AC22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D23" s="2">
@@ -2063,63 +2420,82 @@
         <v>23</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.6682251337635696</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.14679871665692401</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.48114651305051598</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.37205477029256001</v>
       </c>
       <c r="O23" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J23,$B$5:$B$48,$I23)</f>
+        <f t="shared" si="1"/>
         <v>2.77521018347264E-2</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0363481359352</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.46601892209409201</v>
       </c>
       <c r="T23" s="2">
+        <f t="shared" si="17"/>
+        <v>0.458993948514753</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="18"/>
+        <v>7.4987129391154803E-2</v>
+      </c>
+      <c r="V23" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.458993948514753</v>
-      </c>
-      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2">
         <f t="shared" si="13"/>
-        <v>7.4987129391154803E-2</v>
-      </c>
-      <c r="V23" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W23" s="2">
-        <f t="shared" si="10"/>
         <v>2.8189039408379646</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="14"/>
+        <v>2.82</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="15"/>
+        <v>0.47</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D24" s="2">
@@ -2138,63 +2514,82 @@
         <v>24</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.1053550844942999</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.43197160511849397</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.47785310926968599</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.0175285611820033E-2</v>
       </c>
       <c r="O24" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J24,$B$5:$B$48,$I24)</f>
+        <f t="shared" si="1"/>
         <v>2.4449306626904898E-3</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.0890761906804198</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.73399142206942203</v>
       </c>
       <c r="T24" s="2">
+        <f t="shared" si="17"/>
+        <v>0.20255026808452301</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="18"/>
+        <v>6.3458309846054967E-2</v>
+      </c>
+      <c r="V24" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.20255026808452301</v>
-      </c>
-      <c r="U24" s="2">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2">
         <f t="shared" si="13"/>
-        <v>6.3458309846054967E-2</v>
-      </c>
-      <c r="V24" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W24" s="2">
-        <f t="shared" si="10"/>
         <v>8.0774496931950868</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="14"/>
+        <v>8.08</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" si="15"/>
+        <v>0.73</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D25" s="2">
@@ -2213,58 +2608,77 @@
         <v>25</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8795529333896699</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.61480024784722698</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.31426816917397699</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.0931582978796037E-2</v>
       </c>
       <c r="O25" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J25,$B$5:$B$48,$I25)</f>
+        <f t="shared" si="1"/>
         <v>3.9493765328856003E-3</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.33760466934964</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.57974988942148697</v>
       </c>
       <c r="T25" s="2">
+        <f t="shared" si="17"/>
+        <v>0.40054433465037997</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="18"/>
+        <v>1.9705775928133051E-2</v>
+      </c>
+      <c r="V25" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.40054433465037997</v>
-      </c>
-      <c r="U25" s="2">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2">
         <f t="shared" si="13"/>
-        <v>1.9705775928133051E-2</v>
-      </c>
-      <c r="V25" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W25" s="2">
-        <f t="shared" si="10"/>
         <v>28.151613456841933</v>
       </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="14"/>
+        <v>28.15</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="15"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2288,58 +2702,77 @@
         <v>26</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.14091764665356</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.40968044296080602</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.47511897318598301</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.11520058385321091</v>
       </c>
       <c r="O26" s="2">
-        <f>SUMIFS(G$5:G$48,$C$5:$C$48,$J26,$B$5:$B$48,$I26)</f>
+        <f t="shared" si="1"/>
         <v>2.4622105448258699E-2</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.84278728525379698</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.75376295084709899</v>
       </c>
       <c r="T26" s="2">
+        <f t="shared" si="17"/>
+        <v>0.22013635144093099</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="18"/>
+        <v>2.6100697711970201E-2</v>
+      </c>
+      <c r="V26" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.22013635144093099</v>
-      </c>
-      <c r="U26" s="2">
+        <v>1</v>
+      </c>
+      <c r="W26" s="2">
         <f t="shared" si="13"/>
-        <v>2.6100697711970201E-2</v>
-      </c>
-      <c r="V26" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W26" s="2">
-        <f t="shared" si="10"/>
         <v>2.3228323585437063</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="14"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="15"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.22</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="str">
         <f>B5</f>
         <v>A03</v>
@@ -2364,37 +2797,56 @@
         <v>17</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.2067553508226796</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.40483382433717302</v>
       </c>
       <c r="T27" s="2">
+        <f t="shared" si="17"/>
+        <v>0.43197731499456399</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="18"/>
+        <v>0.16318886066826305</v>
+      </c>
+      <c r="V27" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.43197731499456399</v>
-      </c>
-      <c r="U27" s="2">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2">
         <f t="shared" si="13"/>
-        <v>0.16318886066826305</v>
-      </c>
-      <c r="V27" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W27" s="2">
-        <f t="shared" si="10"/>
         <v>67.138345641823264</v>
       </c>
-    </row>
-    <row r="28" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="14"/>
+        <v>67.14</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.43</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="str">
-        <f t="shared" ref="B28:B48" si="14">B6</f>
+        <f t="shared" ref="B28:B48" si="19">B6</f>
         <v>C10T12</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:C48" si="15">C6+1</f>
+        <f t="shared" ref="C28:C48" si="20">C6+1</f>
         <v>2</v>
       </c>
       <c r="D28" s="2">
@@ -2422,37 +2874,56 @@
         <v>39</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.87304073082233302</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.751773632856366</v>
       </c>
       <c r="T28" s="2">
+        <f t="shared" si="17"/>
+        <v>8.6651151878363197E-2</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="18"/>
+        <v>0.16157521526527099</v>
+      </c>
+      <c r="V28" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>8.6651151878363197E-2</v>
-      </c>
-      <c r="U28" s="2">
+        <v>1</v>
+      </c>
+      <c r="W28" s="2">
         <f t="shared" si="13"/>
-        <v>0.16157521526527099</v>
-      </c>
-      <c r="V28" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W28" s="2">
-        <f t="shared" si="10"/>
         <v>2.3941798528611251</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="14"/>
+        <v>2.39</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" si="15"/>
+        <v>0.75</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C13T15</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D29" s="2">
@@ -2471,37 +2942,56 @@
         <v>18</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8690280739816401</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.79898807294152996</v>
       </c>
       <c r="T29" s="2">
+        <f t="shared" si="17"/>
+        <v>0.14217755077413899</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="18"/>
+        <v>5.8834376284331052E-2</v>
+      </c>
+      <c r="V29" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.14217755077413899</v>
-      </c>
-      <c r="U29" s="2">
+        <v>1</v>
+      </c>
+      <c r="W29" s="2">
         <f t="shared" si="13"/>
-        <v>5.8834376284331052E-2</v>
-      </c>
-      <c r="V29" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W29" s="2">
-        <f t="shared" si="10"/>
         <v>6.481993318761571</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="14"/>
+        <v>6.48</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB29" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C16</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D30" s="2">
@@ -2535,37 +3025,56 @@
         <v>40</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7579225505571301</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.57071487282924305</v>
       </c>
       <c r="T30" s="2">
+        <f t="shared" si="17"/>
+        <v>9.8747087123221694E-2</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="18"/>
+        <v>0.33053804004753501</v>
+      </c>
+      <c r="V30" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>9.8747087123221694E-2</v>
-      </c>
-      <c r="U30" s="2">
+        <v>1</v>
+      </c>
+      <c r="W30" s="2">
         <f t="shared" si="13"/>
-        <v>0.33053804004753501</v>
-      </c>
-      <c r="V30" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W30" s="2">
-        <f t="shared" si="10"/>
         <v>5.8003748835423821</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="14"/>
+        <v>5.8</v>
+      </c>
+      <c r="AA30" s="2">
+        <f t="shared" si="15"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB30" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="AC30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C17</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D31" s="2">
@@ -2599,37 +3108,56 @@
         <v>19</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.6254481178160698</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.36661423549650002</v>
       </c>
       <c r="T31" s="2">
+        <f t="shared" si="17"/>
+        <v>1E-3</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="18"/>
+        <v>0.63238576450349993</v>
+      </c>
+      <c r="V31" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>1E-3</v>
-      </c>
-      <c r="U31" s="2">
+        <v>1</v>
+      </c>
+      <c r="W31" s="2">
         <f t="shared" si="13"/>
-        <v>0.63238576450349993</v>
-      </c>
-      <c r="V31" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W31" s="2">
-        <f t="shared" si="10"/>
         <v>37.541542424816647</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="14"/>
+        <v>37.54</v>
+      </c>
+      <c r="AA31" s="2">
+        <f t="shared" si="15"/>
+        <v>0.37</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C20</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D32" s="2">
@@ -2663,37 +3191,56 @@
         <v>41</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1109411765374699</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.314388385550597</v>
       </c>
       <c r="T32" s="2">
+        <f t="shared" si="17"/>
+        <v>0.56456145886661302</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="18"/>
+        <v>0.12105015558279</v>
+      </c>
+      <c r="V32" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.56456145886661302</v>
-      </c>
-      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2">
         <f t="shared" si="13"/>
-        <v>0.12105015558279</v>
-      </c>
-      <c r="V32" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W32" s="2">
-        <f t="shared" si="10"/>
         <v>3.0372156057219932</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="14"/>
+        <v>3.04</v>
+      </c>
+      <c r="AA32" s="2">
+        <f t="shared" si="15"/>
+        <v>0.31</v>
+      </c>
+      <c r="AB32" s="2">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C21</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D33" s="2">
@@ -2727,37 +3274,56 @@
         <v>20</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.75173896622252</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.81035355177627599</v>
       </c>
       <c r="T33" s="2">
+        <f t="shared" si="17"/>
+        <v>0.129078915539901</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="18"/>
+        <v>6.0567532683823005E-2</v>
+      </c>
+      <c r="V33" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.129078915539901</v>
-      </c>
-      <c r="U33" s="2">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
         <f t="shared" si="13"/>
-        <v>6.0567532683823005E-2</v>
-      </c>
-      <c r="V33" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W33" s="2">
-        <f t="shared" si="10"/>
         <v>5.7646184416984685</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="14"/>
+        <v>5.76</v>
+      </c>
+      <c r="AA33" s="2">
+        <f t="shared" si="15"/>
+        <v>0.81</v>
+      </c>
+      <c r="AB33" s="2">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C24</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D34" s="2">
@@ -2791,37 +3357,56 @@
         <v>21</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.80417951774302</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.65686903372030503</v>
       </c>
       <c r="T34" s="2">
+        <f t="shared" si="17"/>
+        <v>0.27932809313823698</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="18"/>
+        <v>6.3802873141457994E-2</v>
+      </c>
+      <c r="V34" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.27932809313823698</v>
-      </c>
-      <c r="U34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
         <f t="shared" si="13"/>
-        <v>6.3802873141457994E-2</v>
-      </c>
-      <c r="V34" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W34" s="2">
-        <f t="shared" si="10"/>
         <v>16.513521294941338</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="14"/>
+        <v>16.510000000000002</v>
+      </c>
+      <c r="AA34" s="2">
+        <f t="shared" si="15"/>
+        <v>0.66</v>
+      </c>
+      <c r="AB34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC34" s="2">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C26</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D35" s="2">
@@ -2855,37 +3440,56 @@
         <v>22</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.0897540149007101</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.31622836091108802</v>
       </c>
       <c r="T35" s="2">
+        <f t="shared" si="17"/>
+        <v>0.61554813485083404</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="18"/>
+        <v>6.8223504238077881E-2</v>
+      </c>
+      <c r="V35" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.61554813485083404</v>
-      </c>
-      <c r="U35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
         <f t="shared" si="13"/>
-        <v>6.8223504238077881E-2</v>
-      </c>
-      <c r="V35" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W35" s="2">
-        <f t="shared" si="10"/>
         <v>162.34992147974268</v>
       </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="14"/>
+        <v>162.35</v>
+      </c>
+      <c r="AA35" s="2">
+        <f t="shared" si="15"/>
+        <v>0.32</v>
+      </c>
+      <c r="AB35" s="2">
+        <f t="shared" si="3"/>
+        <v>0.62</v>
+      </c>
+      <c r="AC35" s="2">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C27</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D36" s="2">
@@ -2919,37 +3523,56 @@
         <v>23</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.6682251337635696</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.14679871665692401</v>
       </c>
       <c r="T36" s="2">
+        <f t="shared" si="17"/>
+        <v>0.48114651305051598</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="18"/>
+        <v>0.37205477029256001</v>
+      </c>
+      <c r="V36" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.48114651305051598</v>
-      </c>
-      <c r="U36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
         <f t="shared" si="13"/>
-        <v>0.37205477029256001</v>
-      </c>
-      <c r="V36" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W36" s="2">
-        <f t="shared" si="10"/>
         <v>289.52021844526251</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="14"/>
+        <v>289.52</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="15"/>
+        <v>0.15</v>
+      </c>
+      <c r="AB36" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="AC36" s="2">
+        <f t="shared" si="4"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C29</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D37" s="2">
@@ -2983,37 +3606,56 @@
         <v>24</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.1053550844942999</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.43197160511849397</v>
       </c>
       <c r="T37" s="2">
+        <f t="shared" si="17"/>
+        <v>0.47785310926968599</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="18"/>
+        <v>9.0175285611820033E-2</v>
+      </c>
+      <c r="V37" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.47785310926968599</v>
-      </c>
-      <c r="U37" s="2">
+        <v>1</v>
+      </c>
+      <c r="W37" s="2">
         <f t="shared" si="13"/>
-        <v>9.0175285611820033E-2</v>
-      </c>
-      <c r="V37" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W37" s="2">
-        <f t="shared" si="10"/>
         <v>60.664281669409355</v>
       </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z37" s="2">
+        <f t="shared" si="14"/>
+        <v>60.66</v>
+      </c>
+      <c r="AA37" s="2">
+        <f t="shared" si="15"/>
+        <v>0.43</v>
+      </c>
+      <c r="AB37" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="AC37" s="2">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C30</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D38" s="2">
@@ -3047,37 +3689,56 @@
         <v>42</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95229476317060002</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.59650395261176303</v>
       </c>
       <c r="T38" s="2">
+        <f t="shared" si="17"/>
+        <v>0.38373796914585501</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="18"/>
+        <v>1.97580782423823E-2</v>
+      </c>
+      <c r="V38" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.38373796914585501</v>
-      </c>
-      <c r="U38" s="2">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2">
         <f t="shared" si="13"/>
-        <v>1.97580782423823E-2</v>
-      </c>
-      <c r="V38" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W38" s="2">
-        <f t="shared" si="10"/>
         <v>2.5916500639159397</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="14"/>
+        <v>2.59</v>
+      </c>
+      <c r="AA38" s="2">
+        <f t="shared" si="15"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="AC38" s="2">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>C33</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D39" s="2">
@@ -3111,37 +3772,56 @@
         <v>43</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.09396084851901</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.137647895490417</v>
       </c>
       <c r="T39" s="2">
+        <f t="shared" si="17"/>
+        <v>0.63025652316951897</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="18"/>
+        <v>0.232095581340064</v>
+      </c>
+      <c r="V39" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.63025652316951897</v>
-      </c>
-      <c r="U39" s="2">
+        <v>1</v>
+      </c>
+      <c r="W39" s="2">
         <f t="shared" si="13"/>
-        <v>0.232095581340064</v>
-      </c>
-      <c r="V39" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W39" s="2">
-        <f t="shared" si="10"/>
         <v>2.9860780831353151</v>
       </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="14"/>
+        <v>2.99</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="15"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="AC39" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>E</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D40" s="2">
@@ -3175,37 +3855,56 @@
         <v>44</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.24776538291322</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.31880473799321002</v>
       </c>
       <c r="T40" s="2">
+        <f t="shared" si="17"/>
+        <v>0.35776690809754802</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="18"/>
+        <v>0.32342835390924202</v>
+      </c>
+      <c r="V40" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.35776690809754802</v>
-      </c>
-      <c r="U40" s="2">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2">
         <f t="shared" si="13"/>
-        <v>0.32342835390924202</v>
-      </c>
-      <c r="V40" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W40" s="2">
-        <f t="shared" si="10"/>
         <v>3.4825520855001635</v>
       </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="14"/>
+        <v>3.48</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="15"/>
+        <v>0.32</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="AC40" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>G</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D41" s="2">
@@ -3239,37 +3938,56 @@
         <v>45</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.90378074377364</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.29328612304111701</v>
       </c>
       <c r="T41" s="2">
+        <f t="shared" si="17"/>
+        <v>0.244476708210004</v>
+      </c>
+      <c r="U41" s="2">
+        <f t="shared" si="18"/>
+        <v>0.46223716874887899</v>
+      </c>
+      <c r="V41" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.244476708210004</v>
-      </c>
-      <c r="U41" s="2">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2">
         <f t="shared" si="13"/>
-        <v>0.46223716874887899</v>
-      </c>
-      <c r="V41" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W41" s="2">
-        <f t="shared" si="10"/>
         <v>6.7112199405060675</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="14"/>
+        <v>6.71</v>
+      </c>
+      <c r="AA41" s="2">
+        <f t="shared" si="15"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="AC41" s="2">
+        <f t="shared" si="4"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>I</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D42" s="2">
@@ -3303,37 +4021,56 @@
         <v>25</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.8795529333896699</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.61480024784722698</v>
       </c>
       <c r="T42" s="2">
+        <f t="shared" si="17"/>
+        <v>0.31426816917397699</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" si="18"/>
+        <v>7.0931582978796037E-2</v>
+      </c>
+      <c r="V42" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.31426816917397699</v>
-      </c>
-      <c r="U42" s="2">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
         <f t="shared" si="13"/>
-        <v>7.0931582978796037E-2</v>
-      </c>
-      <c r="V42" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W42" s="2">
-        <f t="shared" si="10"/>
         <v>17.806310792877539</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="14"/>
+        <v>17.809999999999999</v>
+      </c>
+      <c r="AA42" s="2">
+        <f t="shared" si="15"/>
+        <v>0.61</v>
+      </c>
+      <c r="AB42" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="AC42" s="2">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>J</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D43" s="2">
@@ -3367,37 +4104,56 @@
         <v>26</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.14091764665356</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.40968044296080602</v>
       </c>
       <c r="T43" s="2">
+        <f t="shared" si="17"/>
+        <v>0.47511897318598301</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="18"/>
+        <v>0.11520058385321091</v>
+      </c>
+      <c r="V43" s="2" t="b">
         <f t="shared" si="12"/>
-        <v>0.47511897318598301</v>
-      </c>
-      <c r="U43" s="2">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2">
         <f t="shared" si="13"/>
-        <v>0.11520058385321091</v>
-      </c>
-      <c r="V43" s="2" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W43" s="2">
-        <f t="shared" si="10"/>
         <v>62.860478698583655</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="14"/>
+        <v>62.86</v>
+      </c>
+      <c r="AA43" s="2">
+        <f t="shared" si="15"/>
+        <v>0.41</v>
+      </c>
+      <c r="AB43" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="AC43" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>K</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D44" s="2">
@@ -3428,13 +4184,13 @@
         <v>1.97580782423823E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>L</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D45" s="2">
@@ -3465,13 +4221,13 @@
         <v>0.232095581340064</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>M</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D46" s="2">
@@ -3502,13 +4258,13 @@
         <v>0.32342835390924202</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D47" s="2">
@@ -3539,13 +4295,13 @@
         <v>0.46223716874887899</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>S</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="D48" s="2">
